--- a/spark-results.xlsx
+++ b/spark-results.xlsx
@@ -4,20 +4,23 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="14355" windowHeight="7995"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="14355" windowHeight="7995" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Text file" sheetId="1" r:id="rId1"/>
+    <sheet name="HDFS" sheetId="2" r:id="rId2"/>
+    <sheet name="Larger memory" sheetId="3" r:id="rId3"/>
+    <sheet name="memory size vs speed" sheetId="4" r:id="rId4"/>
+    <sheet name="cache" sheetId="5" r:id="rId5"/>
+    <sheet name="1g+cache" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
   <si>
     <t>Number of points</t>
   </si>
@@ -47,14 +50,129 @@
   </si>
   <si>
     <t>put file in hdfs</t>
+  </si>
+  <si>
+    <t>Initialization time</t>
+  </si>
+  <si>
+    <t>Iteration time</t>
+  </si>
+  <si>
+    <t>SPARK_MEM (MB)</t>
+  </si>
+  <si>
+    <t>For 32 million points, expressed as 4 repetitions of an 8m-point file:</t>
+  </si>
+  <si>
+    <t>32 million points, 1g memory</t>
+  </si>
+  <si>
+    <t>BoundedMemoryCache</t>
+  </si>
+  <si>
+    <t>memoryFraction</t>
+  </si>
+  <si>
+    <t>init time</t>
+  </si>
+  <si>
+    <t>iter time</t>
+  </si>
+  <si>
+    <t>maxBytes</t>
+  </si>
+  <si>
+    <t>1 GB memory, BoundedMemoryCache with fraction 0.5, points made of repeated references to file with 8 million points</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conclusion: </t>
+  </si>
+  <si>
+    <t>DNF</t>
+  </si>
+  <si>
+    <t>Memory size doesn't affect iteration time beyond a certain threshold (150-300 MB).</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Trial 1</t>
+  </si>
+  <si>
+    <t>Trial 2</t>
+  </si>
+  <si>
+    <t>Trial 3</t>
+  </si>
+  <si>
+    <t>Trial 4</t>
+  </si>
+  <si>
+    <t>Trial 5</t>
+  </si>
+  <si>
+    <t>Trial 6</t>
+  </si>
+  <si>
+    <t>Trial 7</t>
+  </si>
+  <si>
+    <t>Trial 8</t>
+  </si>
+  <si>
+    <t>Trial 9</t>
+  </si>
+  <si>
+    <t>Trial 10</t>
+  </si>
+  <si>
+    <t>File size (GB)</t>
+  </si>
+  <si>
+    <t>Standard deviation</t>
+  </si>
+  <si>
+    <t>Error up</t>
+  </si>
+  <si>
+    <t>Error down</t>
+  </si>
+  <si>
+    <t>localityWaitspark.locality.wait</t>
+  </si>
+  <si>
+    <t>spark.locality.wait</t>
+  </si>
+  <si>
+    <t>simplejob</t>
+  </si>
+  <si>
+    <t>task length by node</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -82,8 +200,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -123,7 +243,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>'Text file'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -134,7 +254,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:f>'Text file'!$A$2:$A$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -155,7 +275,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$5</c:f>
+              <c:f>'Text file'!$D$2:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -181,7 +301,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
+              <c:f>'Text file'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -192,7 +312,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:f>'Text file'!$A$2:$A$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -213,7 +333,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$5</c:f>
+              <c:f>'Text file'!$E$2:$E$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -242,11 +362,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="50028544"/>
-        <c:axId val="50030080"/>
+        <c:axId val="105096320"/>
+        <c:axId val="105097856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="50028544"/>
+        <c:axId val="105096320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -256,12 +376,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50030080"/>
+        <c:crossAx val="105097856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="50030080"/>
+        <c:axId val="105097856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -272,14 +392,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50028544"/>
+        <c:crossAx val="105096320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -319,7 +438,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>'Text file'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -330,7 +449,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$5</c:f>
+              <c:f>'Text file'!$C$2:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -351,7 +470,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$5</c:f>
+              <c:f>'Text file'!$D$2:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -377,7 +496,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
+              <c:f>'Text file'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -388,7 +507,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$5</c:f>
+              <c:f>'Text file'!$C$2:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -409,7 +528,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$5</c:f>
+              <c:f>'Text file'!$E$2:$E$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -438,11 +557,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="50042752"/>
-        <c:axId val="50044288"/>
+        <c:axId val="105974784"/>
+        <c:axId val="105976576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="50042752"/>
+        <c:axId val="105974784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -452,12 +571,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50044288"/>
+        <c:crossAx val="105976576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="50044288"/>
+        <c:axId val="105976576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -468,7 +587,999 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50042752"/>
+        <c:crossAx val="105974784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HDFS!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Initialization</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>HDFS!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>HDFS!$D$2:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6.0720000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.906000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.808</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.905999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HDFS!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Iterations</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>HDFS!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>HDFS!$E$2:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.92666666666666675</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5474999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.1795</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="106014208"/>
+        <c:axId val="106015744"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="106014208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="106015744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="106015744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="106014208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HDFS!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Initialization</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>HDFS!$C$2:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2666666.6666666665</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>HDFS!$D$2:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6.0720000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.906000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.808</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.905999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HDFS!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Iterations</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>HDFS!$C$2:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2666666.6666666665</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>HDFS!$E$2:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.92666666666666675</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5474999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.1795</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="106028416"/>
+        <c:axId val="106050688"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="106028416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="106050688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="106050688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="106028416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Memory</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> size vs. Init time</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="1"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'memory size vs speed'!$A$4:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'memory size vs speed'!$B$4:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>26.16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.667999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="105794176"/>
+        <c:axId val="105800448"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="105794176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Memory</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> size of SPARK_MEM (MB)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="105800448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="105800448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Initialization</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> time (seconds)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="105794176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Memory</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> size vs. Iter time</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'memory size vs speed'!$A$4:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'memory size vs speed'!$C$4:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.4499999999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5566666666666675</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="105776640"/>
+        <c:axId val="105829504"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="105776640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Memory size (MB)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="105829504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="105829504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> iteration time (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="105776640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Q:$Q</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1048576"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5.5247506371047193</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>12.540117382700267</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>22.114497104488301</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>20.61464504078857</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>42.423353261009709</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>26.998061658814745</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$R:$R</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1048576"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.0532493628952802</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.8426826172997322</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>6.1415028955117004</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>7.5233549592114288</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.1666467389902841</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>8.0469383411852569</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="1"/>
+          </c:errBars>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>8000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>256000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>localityWaitspark.locality.wait</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>task length by node</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$2:$O$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>4.7889999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.1913999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.068999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.294999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.522500000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="106137856"/>
+        <c:axId val="106147840"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="106137856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="106147840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="106147840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="106137856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -547,6 +1658,171 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>100011</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -844,8 +2120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -980,24 +2256,1024 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1000000</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <f>A2/B2</f>
+        <v>500000</v>
+      </c>
+      <c r="D2">
+        <v>6.0720000000000001</v>
+      </c>
+      <c r="E2">
+        <f>AVERAGE(1.12,0.83,0.83)</f>
+        <v>0.92666666666666675</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2000000</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <f>A3/B3</f>
+        <v>1000000</v>
+      </c>
+      <c r="D3">
+        <v>14.906000000000001</v>
+      </c>
+      <c r="E3">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4000000</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <f>A4/B4</f>
+        <v>2000000</v>
+      </c>
+      <c r="D4">
+        <v>16.808</v>
+      </c>
+      <c r="E4">
+        <f>AVERAGE(2.67,2.75,2.2,2.57)</f>
+        <v>2.5474999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>8000000</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <f>A5/B5</f>
+        <v>2666666.6666666665</v>
+      </c>
+      <c r="D5">
+        <v>26.905999999999999</v>
+      </c>
+      <c r="E5">
+        <f>AVERAGE(5.45,4.909)</f>
+        <v>5.1795</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>16000000</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <f>A6/B6</f>
+        <v>3200000</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1000000</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:C7" si="0">A2/B2</f>
+        <v>500000</v>
+      </c>
+      <c r="D2">
+        <v>7.07</v>
+      </c>
+      <c r="E2">
+        <f>AVERAGE(3.5,0.7,0.7)</f>
+        <v>1.6333333333333335</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2000000</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>1000000</v>
+      </c>
+      <c r="D3">
+        <v>9.08</v>
+      </c>
+      <c r="E3">
+        <f>AVERAGE(2.2,1.8,1.7)</f>
+        <v>1.9000000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4000000</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>2000000</v>
+      </c>
+      <c r="D4">
+        <v>21.1</v>
+      </c>
+      <c r="E4">
+        <f>AVERAGE(4.3,3.7,5.6,3)</f>
+        <v>4.1500000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>8000000</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>2666666.6666666665</v>
+      </c>
+      <c r="D5">
+        <v>34.97</v>
+      </c>
+      <c r="E5">
+        <f>AVERAGE(5.49,4.58)</f>
+        <v>5.0350000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>16000000</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>2666666.6666666665</v>
+      </c>
+      <c r="D6">
+        <v>86.117000000000004</v>
+      </c>
+      <c r="E6">
+        <f>AVERAGE(5.58,7.5)</f>
+        <v>6.54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>32000000</v>
+      </c>
+      <c r="B7">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>2666666.6666666665</v>
+      </c>
+      <c r="D7">
+        <v>24.73</v>
+      </c>
+      <c r="E7">
+        <f>AVERAGE(4.72,4.74,4.61)</f>
+        <v>4.6900000000000004</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>150</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>300</v>
+      </c>
+      <c r="B4">
+        <v>26.16</v>
+      </c>
+      <c r="C4">
+        <f>AVERAGE(5.4,5.4,5.6,5.4)</f>
+        <v>5.4499999999999993</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>600</v>
+      </c>
+      <c r="B5">
+        <v>23.22</v>
+      </c>
+      <c r="C5">
+        <f>AVERAGE(5.06,5.32)</f>
+        <v>5.1899999999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1200</v>
+      </c>
+      <c r="B6">
+        <v>23.667999999999999</v>
+      </c>
+      <c r="C6">
+        <f>AVERAGE(4.87,4.32,4.48)</f>
+        <v>4.5566666666666675</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I14" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.4</v>
+      </c>
+      <c r="B5">
+        <v>411618508</v>
+      </c>
+      <c r="C5">
+        <v>50.89</v>
+      </c>
+      <c r="D5">
+        <f>AVERAGE(58.75,112.82)</f>
+        <v>85.784999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.5</v>
+      </c>
+      <c r="B6">
+        <v>514523136</v>
+      </c>
+      <c r="C6">
+        <v>28.7</v>
+      </c>
+      <c r="D6">
+        <f>AVERAGE(5.46,5.14,5.17,5.02,4.06)</f>
+        <v>4.97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.5</v>
+      </c>
+      <c r="B7">
+        <v>514523136</v>
+      </c>
+      <c r="C7">
+        <v>37.219000000000001</v>
+      </c>
+      <c r="D7">
+        <f>AVERAGE(46,50)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.75</v>
+      </c>
+      <c r="B8">
+        <v>771784704</v>
+      </c>
+      <c r="C8">
+        <v>27.126000000000001</v>
+      </c>
+      <c r="D8">
+        <f>AVERAGE(55.9,77.2)</f>
+        <v>66.55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.9</v>
+      </c>
+      <c r="B9">
+        <v>926141644</v>
+      </c>
+      <c r="C9">
+        <v>56.95</v>
+      </c>
+      <c r="D9">
+        <f>AVERAGE(41,55)</f>
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>8000000*8</f>
+        <v>64000000</v>
+      </c>
+      <c r="B3">
+        <v>24</v>
+      </c>
+      <c r="C3">
+        <f>A3/B3</f>
+        <v>2666666.6666666665</v>
+      </c>
+      <c r="D3">
+        <v>52.26</v>
+      </c>
+      <c r="E3">
+        <f>AVERAGE(53.4,42.76)</f>
+        <v>48.08</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+    <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" customWidth="1"/>
+    <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>8000000</v>
+      </c>
+      <c r="B2">
+        <f>148502/(1024*1024)</f>
+        <v>0.14162254333496094</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ref="D2:D7" si="0">A2/C2</f>
+        <v>2666666.6666666665</v>
+      </c>
+      <c r="E2">
+        <v>5.51</v>
+      </c>
+      <c r="F2">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="G2">
+        <v>3.87</v>
+      </c>
+      <c r="H2">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="I2">
+        <v>5.9</v>
+      </c>
+      <c r="J2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K2">
+        <v>5.19</v>
+      </c>
+      <c r="L2">
+        <v>3.75</v>
+      </c>
+      <c r="M2">
+        <v>5.7</v>
+      </c>
+      <c r="N2">
+        <v>4.2</v>
+      </c>
+      <c r="O2">
+        <f>AVERAGE(E2:N2)</f>
+        <v>4.7889999999999997</v>
+      </c>
+      <c r="P2">
+        <f t="shared" ref="P2:P7" si="1">_xlfn.STDEV.P(E2:N2)</f>
+        <v>0.73575063710471944</v>
+      </c>
+      <c r="Q2">
+        <f>O2+P2</f>
+        <v>5.5247506371047193</v>
+      </c>
+      <c r="R2">
+        <f>O2-P2</f>
+        <v>4.0532493628952802</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>16000000</v>
+      </c>
+      <c r="B3">
+        <f>B2*2</f>
+        <v>0.28324508666992188</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>3200000</v>
+      </c>
+      <c r="E3">
+        <v>23.053999999999998</v>
+      </c>
+      <c r="F3">
+        <v>5.61</v>
+      </c>
+      <c r="G3">
+        <v>7.2</v>
+      </c>
+      <c r="H3">
+        <v>5.65</v>
+      </c>
+      <c r="I3">
+        <v>5.95</v>
+      </c>
+      <c r="J3">
+        <v>4.45</v>
+      </c>
+      <c r="K3">
+        <v>5.23</v>
+      </c>
+      <c r="L3">
+        <v>4.01</v>
+      </c>
+      <c r="M3">
+        <v>5.41</v>
+      </c>
+      <c r="N3">
+        <v>5.35</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O7" si="2">AVERAGE(E3:N3)</f>
+        <v>7.1913999999999998</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="1"/>
+        <v>5.3487173827002676</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q7" si="3">O3+P3</f>
+        <v>12.540117382700267</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R7" si="4">O3-P3</f>
+        <v>1.8426826172997322</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>32000000</v>
+      </c>
+      <c r="B4">
+        <f>B3*2</f>
+        <v>0.56649017333984375</v>
+      </c>
+      <c r="C4">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>2666666.6666666665</v>
+      </c>
+      <c r="E4">
+        <v>22.4</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <v>21.15</v>
+      </c>
+      <c r="H4">
+        <v>6.22</v>
+      </c>
+      <c r="I4">
+        <v>21.35</v>
+      </c>
+      <c r="J4">
+        <v>6.38</v>
+      </c>
+      <c r="K4">
+        <v>22.27</v>
+      </c>
+      <c r="L4">
+        <v>5.82</v>
+      </c>
+      <c r="M4">
+        <v>23.3</v>
+      </c>
+      <c r="N4">
+        <v>6.39</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="2"/>
+        <v>14.128</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="1"/>
+        <v>7.9864971044882997</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="3"/>
+        <v>22.114497104488301</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="4"/>
+        <v>6.1415028955117004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>64000000</v>
+      </c>
+      <c r="B5">
+        <f>B4*2</f>
+        <v>1.1329803466796875</v>
+      </c>
+      <c r="C5">
+        <v>24</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>2666666.6666666665</v>
+      </c>
+      <c r="E5">
+        <v>23.5</v>
+      </c>
+      <c r="F5">
+        <v>10.18</v>
+      </c>
+      <c r="G5">
+        <v>9.77</v>
+      </c>
+      <c r="H5">
+        <v>9.85</v>
+      </c>
+      <c r="I5">
+        <v>9.64</v>
+      </c>
+      <c r="J5">
+        <v>10</v>
+      </c>
+      <c r="K5">
+        <v>22.57</v>
+      </c>
+      <c r="L5">
+        <v>9.16</v>
+      </c>
+      <c r="M5">
+        <v>25.9</v>
+      </c>
+      <c r="N5">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="2"/>
+        <v>14.068999999999999</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="1"/>
+        <v>6.5456450407885702</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="3"/>
+        <v>20.61464504078857</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="4"/>
+        <v>7.5233549592114288</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>128000000</v>
+      </c>
+      <c r="B6">
+        <f>B5*2</f>
+        <v>2.265960693359375</v>
+      </c>
+      <c r="C6">
+        <v>48</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>2666666.6666666665</v>
+      </c>
+      <c r="E6">
+        <v>21</v>
+      </c>
+      <c r="F6">
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <v>25.01</v>
+      </c>
+      <c r="H6">
+        <v>79.98</v>
+      </c>
+      <c r="I6">
+        <v>22.5</v>
+      </c>
+      <c r="J6">
+        <v>9.98</v>
+      </c>
+      <c r="K6">
+        <v>22.73</v>
+      </c>
+      <c r="L6">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="M6">
+        <v>10.6</v>
+      </c>
+      <c r="N6">
+        <v>10.1</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="2"/>
+        <v>22.294999999999998</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="1"/>
+        <v>20.128353261009714</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="3"/>
+        <v>42.423353261009709</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="4"/>
+        <v>2.1666467389902841</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>256000000</v>
+      </c>
+      <c r="B7">
+        <f>B6*2</f>
+        <v>4.53192138671875</v>
+      </c>
+      <c r="C7">
+        <v>96</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>2666666.6666666665</v>
+      </c>
+      <c r="E7">
+        <v>38.43</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>23.7</v>
+      </c>
+      <c r="H7">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="I7">
+        <v>22.7</v>
+      </c>
+      <c r="J7">
+        <v>11.4</v>
+      </c>
+      <c r="K7">
+        <v>13.28</v>
+      </c>
+      <c r="L7">
+        <v>10.97</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="2"/>
+        <v>17.522500000000001</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="1"/>
+        <v>9.475561658814744</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="3"/>
+        <v>26.998061658814745</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="4"/>
+        <v>8.0469383411852569</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>